--- a/Ecopulpers/Sensitivity Results/Ecopulpers - Productivity increase due to 100% new machines (not spoiling the cerry).xlsx
+++ b/Ecopulpers/Sensitivity Results/Ecopulpers - Productivity increase due to 100% new machines (not spoiling the cerry).xlsx
@@ -643,70 +643,70 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E4">
-        <v>-0.02498709689825773</v>
+        <v>-2.42207265086472</v>
       </c>
       <c r="F4">
-        <v>-0.02498709899265217</v>
+        <v>-0.02498012428391687</v>
       </c>
       <c r="G4">
-        <v>-40.02065226915957</v>
+        <v>-40.03182644867132</v>
       </c>
       <c r="H4">
-        <v>1.430638326171902</v>
+        <v>138.7039714279817</v>
       </c>
       <c r="I4">
-        <v>-0.0001450290310458513</v>
+        <v>-0.01406058689462952</v>
       </c>
       <c r="J4">
-        <v>0.0005311485629135859</v>
+        <v>0.05149963283929537</v>
       </c>
       <c r="K4">
-        <v>0.000918002100661397</v>
+        <v>0.08904049545526505</v>
       </c>
       <c r="L4">
-        <v>-0.005090552382171154</v>
+        <v>-0.4935806735884398</v>
       </c>
       <c r="M4">
-        <v>-0.004677983932197094</v>
+        <v>-0.4535888531245291</v>
       </c>
       <c r="N4">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O4">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P4">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q4">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R4">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S4">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T4">
-        <v>-14.30413531544036</v>
+        <v>-1386.821753408411</v>
       </c>
       <c r="U4">
-        <v>0.003512578256049892</v>
+        <v>0.3405653076970339</v>
       </c>
       <c r="V4">
-        <v>-0.005302503149323456</v>
+        <v>-0.5141253872316156</v>
       </c>
       <c r="W4">
-        <v>0.2827027838211507</v>
+        <v>27.41055177757517</v>
       </c>
       <c r="X4">
-        <v>0.1034713704138994</v>
+        <v>10.03269939403981</v>
       </c>
       <c r="Y4">
-        <v>0.5793237483594567</v>
+        <v>56.17123784776777</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -716,70 +716,70 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E5">
-        <v>0.08604079019278288</v>
+        <v>8.343645698390901</v>
       </c>
       <c r="F5">
-        <v>0.0860407974046392</v>
+        <v>0.08605245860497279</v>
       </c>
       <c r="G5">
-        <v>11.62239344780969</v>
+        <v>11.6208184659841</v>
       </c>
       <c r="H5">
-        <v>1.43573199234379</v>
+        <v>139.1871222900954</v>
       </c>
       <c r="I5">
-        <v>-6.584278344234917e-05</v>
+        <v>-0.006381419016179279</v>
       </c>
       <c r="J5">
-        <v>0.001063821405296039</v>
+        <v>0.1031459945506867</v>
       </c>
       <c r="K5">
-        <v>0.01068913517519832</v>
+        <v>1.036461042473093</v>
       </c>
       <c r="L5">
-        <v>-0.001113003818318248</v>
+        <v>-0.1079261575359851</v>
       </c>
       <c r="M5">
-        <v>0.007856315467506647</v>
+        <v>0.7617003140039742</v>
       </c>
       <c r="N5">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O5">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P5">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q5">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R5">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S5">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T5">
-        <v>-14.35507197715924</v>
+        <v>-1391.653262029547</v>
       </c>
       <c r="U5">
-        <v>0.002720715780014871</v>
+        <v>0.2637736289125314</v>
       </c>
       <c r="V5">
-        <v>-0.01062923157314799</v>
+        <v>-1.030589004345529</v>
       </c>
       <c r="W5">
-        <v>0.1849914530757815</v>
+        <v>17.93634630739689</v>
       </c>
       <c r="X5">
-        <v>-0.02187162358313799</v>
+        <v>-2.120192277245224</v>
       </c>
       <c r="Y5">
-        <v>0.5395482627209276</v>
+        <v>52.31469268724322</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -789,70 +789,70 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E6">
-        <v>0.197068652138114</v>
+        <v>19.10913966968656</v>
       </c>
       <c r="F6">
-        <v>0.197068668656219</v>
+        <v>0.1970827273645466</v>
       </c>
       <c r="G6">
-        <v>5.074373348228547</v>
+        <v>5.074011372647013</v>
       </c>
       <c r="H6">
-        <v>1.440825657424284</v>
+        <v>139.6702630824293</v>
       </c>
       <c r="I6">
-        <v>1.334344779024832e-05</v>
+        <v>0.001297588816669304</v>
       </c>
       <c r="J6">
-        <v>0.00159649413308216</v>
+        <v>0.1547912798532707</v>
       </c>
       <c r="K6">
-        <v>0.02046026615425944</v>
+        <v>1.983861843356863</v>
       </c>
       <c r="L6">
-        <v>0.002864544279873371</v>
+        <v>0.2777203212026507</v>
       </c>
       <c r="M6">
-        <v>0.02039061253890395</v>
+        <v>1.976964151952416</v>
       </c>
       <c r="N6">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O6">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P6">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q6">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R6">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S6">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T6">
-        <v>-14.40600862796418</v>
+        <v>-1396.484669952886</v>
       </c>
       <c r="U6">
-        <v>0.001928853467688896</v>
+        <v>0.1869835505840456</v>
       </c>
       <c r="V6">
-        <v>-0.0159559588510092</v>
+        <v>-1.547041857371369</v>
       </c>
       <c r="W6">
-        <v>0.0872801432851702</v>
+        <v>8.462338298559189</v>
       </c>
       <c r="X6">
-        <v>-0.147214594297111</v>
+        <v>-14.27283065672964</v>
       </c>
       <c r="Y6">
-        <v>0.4997727817390114</v>
+        <v>48.45822789985687</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -862,70 +862,70 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E7">
-        <v>0.3080964898690581</v>
+        <v>29.87440926767886</v>
       </c>
       <c r="F7">
-        <v>0.3080965156934097</v>
+        <v>0.3081106820428307</v>
       </c>
       <c r="G7">
-        <v>3.245736154300138</v>
+        <v>3.245586921458924</v>
       </c>
       <c r="H7">
-        <v>1.445919321369729</v>
+        <v>140.1533938052598</v>
       </c>
       <c r="I7">
-        <v>9.252966447093058e-05</v>
+        <v>0.008976436611192185</v>
       </c>
       <c r="J7">
-        <v>0.002129166746271949</v>
+        <v>0.2064354887788795</v>
       </c>
       <c r="K7">
-        <v>0.03023139527067542</v>
+        <v>2.931242898805067</v>
       </c>
       <c r="L7">
-        <v>0.006842090981081128</v>
+        <v>0.6633587619289756</v>
       </c>
       <c r="M7">
-        <v>0.03292490681633353</v>
+        <v>3.192202662117779</v>
       </c>
       <c r="N7">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O7">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P7">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q7">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R7">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S7">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T7">
-        <v>-14.45694526741863</v>
+        <v>-1401.315977181192</v>
       </c>
       <c r="U7">
-        <v>0.001136991300882073</v>
+        <v>0.1101950726388168</v>
       </c>
       <c r="V7">
-        <v>-0.02128268498290709</v>
+        <v>-2.063483946627457</v>
       </c>
       <c r="W7">
-        <v>-0.01043114787898958</v>
+        <v>-1.011472255922854</v>
       </c>
       <c r="X7">
-        <v>-0.2725575370714068</v>
+        <v>-26.42521575838327</v>
       </c>
       <c r="Y7">
-        <v>0.4599973147269338</v>
+        <v>44.60184349259362</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -935,70 +935,70 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E8">
-        <v>0.4191243043169379</v>
+        <v>40.639454504475</v>
       </c>
       <c r="F8">
-        <v>0.4191243394475342</v>
+        <v>0.4191363227646929</v>
       </c>
       <c r="G8">
-        <v>2.385926814267439</v>
+        <v>2.385858599426157</v>
       </c>
       <c r="H8">
-        <v>1.451012984281988</v>
+        <v>140.6365144589217</v>
       </c>
       <c r="I8">
-        <v>0.0001717158611427294</v>
+        <v>0.01665512435647543</v>
       </c>
       <c r="J8">
-        <v>0.0026618392457749</v>
+        <v>0.2580786213629835</v>
       </c>
       <c r="K8">
-        <v>0.04000252182595432</v>
+        <v>3.878604209516197</v>
       </c>
       <c r="L8">
-        <v>0.01081963698379695</v>
+        <v>1.048989166272804</v>
       </c>
       <c r="M8">
-        <v>0.04545919829979539</v>
+        <v>4.407415844500065</v>
       </c>
       <c r="N8">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O8">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P8">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q8">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R8">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S8">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T8">
-        <v>-14.50788189654122</v>
+        <v>-1406.147183717811</v>
       </c>
       <c r="U8">
-        <v>0.0003451293341640849</v>
+        <v>0.03340819518598437</v>
       </c>
       <c r="V8">
-        <v>-0.02660940997793659</v>
+        <v>-2.579915272468497</v>
       </c>
       <c r="W8">
-        <v>-0.1081424134317786</v>
+        <v>-10.48508536303416</v>
       </c>
       <c r="X8">
-        <v>-0.3979004519060254</v>
+        <v>-38.57734758220613</v>
       </c>
       <c r="Y8">
-        <v>0.4202218546997756</v>
+        <v>40.74553944915533</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1008,70 +1008,70 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E9">
-        <v>0.5301520954817533</v>
+        <v>51.40427538286895</v>
       </c>
       <c r="F9">
-        <v>0.5301521399185923</v>
+        <v>0.5301596495589489</v>
       </c>
       <c r="G9">
-        <v>1.886250992316197</v>
+        <v>1.886224273823784</v>
       </c>
       <c r="H9">
-        <v>1.456106646044645</v>
+        <v>141.1196250437642</v>
       </c>
       <c r="I9">
-        <v>0.0002509020414436236</v>
+        <v>0.02433365207616589</v>
       </c>
       <c r="J9">
-        <v>0.003194511628862529</v>
+        <v>0.3097206776392341</v>
       </c>
       <c r="K9">
-        <v>0.04977364698424935</v>
+        <v>4.825945775955915</v>
       </c>
       <c r="L9">
-        <v>0.01479718252085149</v>
+        <v>1.434611532604322</v>
       </c>
       <c r="M9">
-        <v>0.05799348698928952</v>
+        <v>5.622603700961918</v>
       </c>
       <c r="N9">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O9">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P9">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q9">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R9">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S9">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T9">
-        <v>-14.5588185141678</v>
+        <v>-1410.978289566236</v>
       </c>
       <c r="U9">
-        <v>-0.0004467324688448571</v>
+        <v>-0.04337708201092028</v>
       </c>
       <c r="V9">
-        <v>-0.03193613380881288</v>
+        <v>-3.096335835231002</v>
       </c>
       <c r="W9">
-        <v>-0.2058536650147289</v>
+        <v>-19.95850102743134</v>
       </c>
       <c r="X9">
-        <v>-0.5232433388009667</v>
+        <v>-50.72922614682466</v>
       </c>
       <c r="Y9">
-        <v>0.3804463993292302</v>
+        <v>36.88931578584015</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1081,70 +1081,70 @@
         <v>36</v>
       </c>
       <c r="D10">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E10">
-        <v>0.6411798624321818</v>
+        <v>62.16887191031128</v>
       </c>
       <c r="F10">
-        <v>0.6411799161752616</v>
+        <v>0.6411806625024407</v>
       </c>
       <c r="G10">
-        <v>1.559624646331963</v>
+        <v>1.559622830946174</v>
       </c>
       <c r="H10">
-        <v>1.461200306774117</v>
+        <v>141.6027255600638</v>
       </c>
       <c r="I10">
-        <v>0.000330088199916645</v>
+        <v>0.03201201977026358</v>
       </c>
       <c r="J10">
-        <v>0.003727183900082309</v>
+        <v>0.3613616576394634</v>
       </c>
       <c r="K10">
-        <v>0.05954476934857666</v>
+        <v>5.773267598822713</v>
       </c>
       <c r="L10">
-        <v>0.01877472666092217</v>
+        <v>1.820225863019004</v>
       </c>
       <c r="M10">
-        <v>0.07052777288481593</v>
+        <v>6.837766231037676</v>
       </c>
       <c r="N10">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O10">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P10">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q10">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R10">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S10">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T10">
-        <v>-14.60975512146251</v>
+        <v>-1415.809294729232</v>
       </c>
       <c r="U10">
-        <v>-0.001238594053575071</v>
+        <v>-0.1201607589518972</v>
       </c>
       <c r="V10">
-        <v>-0.03726285652101069</v>
+        <v>-3.612745635233296</v>
       </c>
       <c r="W10">
-        <v>-0.303564888658002</v>
+        <v>-29.43171925609931</v>
       </c>
       <c r="X10">
-        <v>-0.6485861977562308</v>
+        <v>-62.88085144758224</v>
       </c>
       <c r="Y10">
-        <v>0.3406709579285234</v>
+        <v>33.03317248169333</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1154,70 +1154,70 @@
         <v>37</v>
       </c>
       <c r="D11">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E11">
-        <v>0.7522076051682234</v>
+        <v>72.93324409518391</v>
       </c>
       <c r="F11">
-        <v>0.7522076682175418</v>
+        <v>0.7521993616816152</v>
       </c>
       <c r="G11">
-        <v>1.329420108637866</v>
+        <v>1.329434789421254</v>
       </c>
       <c r="H11">
-        <v>1.466293966353987</v>
+        <v>142.0858160081116</v>
       </c>
       <c r="I11">
-        <v>0.0004092743492947193</v>
+        <v>0.03969022742603556</v>
       </c>
       <c r="J11">
-        <v>0.004259856056705758</v>
+        <v>0.4130015614000513</v>
       </c>
       <c r="K11">
-        <v>0.06931588985025883</v>
+        <v>6.72056967834942</v>
       </c>
       <c r="L11">
-        <v>0.02275227010250092</v>
+        <v>2.205832156352699</v>
       </c>
       <c r="M11">
-        <v>0.0830620564520359</v>
+        <v>8.052903436124325</v>
       </c>
       <c r="N11">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O11">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P11">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q11">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R11">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S11">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T11">
-        <v>-14.66069171726122</v>
+        <v>-1420.640199209709</v>
       </c>
       <c r="U11">
-        <v>-0.002030455547355814</v>
+        <v>-0.196942835509617</v>
       </c>
       <c r="V11">
-        <v>-0.04258957808724517</v>
+        <v>-4.129144672839175</v>
       </c>
       <c r="W11">
-        <v>-0.4012760936748236</v>
+        <v>-38.90474005136639</v>
       </c>
       <c r="X11">
-        <v>-0.7739290334284306</v>
+        <v>-75.03222349844873</v>
       </c>
       <c r="Y11">
-        <v>0.300895523512736</v>
+        <v>29.17710954835638</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1227,70 +1227,70 @@
         <v>38</v>
       </c>
       <c r="D12">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E12">
-        <v>-0.1360150082036853</v>
+        <v>-13.18801538553089</v>
       </c>
       <c r="F12">
-        <v>-0.1360150196043325</v>
+        <v>-0.1360150213789642</v>
       </c>
       <c r="G12">
-        <v>-7.352129220059656</v>
+        <v>-7.352129124134064</v>
       </c>
       <c r="H12">
-        <v>1.425544658879517</v>
+        <v>138.2208104957681</v>
       </c>
       <c r="I12">
-        <v>-0.0002242152913822792</v>
+        <v>-0.02173991483141435</v>
       </c>
       <c r="J12">
-        <v>-1.524394065199886e-06</v>
+        <v>-0.0001478053145547165</v>
       </c>
       <c r="K12">
-        <v>-0.008853133302181959</v>
+        <v>-0.8583997981622815</v>
       </c>
       <c r="L12">
-        <v>-0.009068101877346635</v>
+        <v>-0.8792432283516973</v>
       </c>
       <c r="M12">
-        <v>-0.01721228612586856</v>
+        <v>-1.668903349898756</v>
       </c>
       <c r="N12">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O12">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P12">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q12">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R12">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S12">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T12">
-        <v>-14.25319864251651</v>
+        <v>-1381.990144086274</v>
       </c>
       <c r="U12">
-        <v>0.004304440859414171</v>
+        <v>0.4173585870648822</v>
       </c>
       <c r="V12">
-        <v>2.42264204644016e-05</v>
+        <v>0.002348994306885288</v>
       </c>
       <c r="W12">
-        <v>0.3804141378495842</v>
+        <v>36.88495471375063</v>
       </c>
       <c r="X12">
-        <v>0.2288143923506141</v>
+        <v>22.18584436178207</v>
       </c>
       <c r="Y12">
-        <v>0.6190992433112115</v>
+        <v>60.02786339540035</v>
       </c>
     </row>
   </sheetData>
